--- a/Экономика/ЛБ1/Книга1.xlsx
+++ b/Экономика/ЛБ1/Книга1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>Первоначальная стоимость</t>
   </si>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t>Экономия налога на прибыль дисконтированная</t>
+  </si>
+  <si>
+    <t>Прибыль</t>
+  </si>
+  <si>
+    <t>Прибыль от реализации продукции</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Амортизационный фонд </t>
+  </si>
+  <si>
+    <t>Собственные источники</t>
   </si>
 </sst>
 </file>
@@ -119,12 +131,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -147,14 +165,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -436,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -659,31 +677,31 @@
         <v>2012.5</v>
       </c>
       <c r="C6" s="4">
-        <f>B6-$B3</f>
+        <f t="shared" ref="C6:I6" si="4">B6-$B3</f>
         <v>1725</v>
       </c>
       <c r="D6" s="4">
-        <f>C6-$B3</f>
+        <f t="shared" si="4"/>
         <v>1437.5</v>
       </c>
       <c r="E6" s="4">
-        <f>D6-$B3</f>
+        <f t="shared" si="4"/>
         <v>1150</v>
       </c>
       <c r="F6" s="4">
-        <f>E6-$B3</f>
+        <f t="shared" si="4"/>
         <v>862.5</v>
       </c>
       <c r="G6" s="4">
-        <f>F6-$B3</f>
+        <f t="shared" si="4"/>
         <v>575</v>
       </c>
       <c r="H6" s="4">
-        <f>G6-$B3</f>
+        <f t="shared" si="4"/>
         <v>287.5</v>
       </c>
       <c r="I6" s="4">
-        <f>H6-$B3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N6" t="s">
@@ -702,32 +720,39 @@
         <v>2156.25</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:I7" si="4">(C5+C6)/2</f>
+        <f t="shared" ref="C7:I7" si="5">(C5+C6)/2</f>
         <v>1868.75</v>
       </c>
       <c r="D7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1581.25</v>
       </c>
       <c r="E7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1293.75</v>
       </c>
       <c r="F7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1006.25</v>
       </c>
       <c r="G7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>718.75</v>
       </c>
       <c r="H7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>431.25</v>
       </c>
       <c r="I7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>143.75</v>
+      </c>
+      <c r="N7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7">
+        <f>O5*O6/100</f>
+        <v>37800</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -739,31 +764,31 @@
         <v>47.4375</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:I8" si="5">C7*0.022</f>
+        <f t="shared" ref="C8:I8" si="6">C7*0.022</f>
         <v>41.112499999999997</v>
       </c>
       <c r="D8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>34.787500000000001</v>
       </c>
       <c r="E8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>28.462499999999999</v>
       </c>
       <c r="F8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22.137499999999999</v>
       </c>
       <c r="G8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15.812499999999998</v>
       </c>
       <c r="H8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.4874999999999989</v>
       </c>
       <c r="I8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.1624999999999996</v>
       </c>
     </row>
@@ -776,41 +801,41 @@
         <v>41.250000000000007</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:I9" si="6">C8*(1/POWER((1+$O$4/100),C1))</f>
+        <f t="shared" ref="C9:I9" si="7">C8*(1/POWER((1+$O$4/100),C1))</f>
         <v>31.086956521739133</v>
       </c>
       <c r="D9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22.873345935727794</v>
       </c>
       <c r="E9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16.273526752691712</v>
       </c>
       <c r="F9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11.006249977665892</v>
       </c>
       <c r="G9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.8361801103514859</v>
       </c>
       <c r="H9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.5667026662703414</v>
       </c>
       <c r="I9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0338268597885047</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
+      <c r="A11" s="6"/>
       <c r="C11">
         <f>$O$2-B12</f>
         <v>1725</v>
@@ -820,23 +845,23 @@
         <v>1293.75</v>
       </c>
       <c r="E11">
-        <f t="shared" ref="E11:I11" si="7">D11-D12</f>
+        <f t="shared" ref="E11:I11" si="8">D11-D12</f>
         <v>970.3125</v>
       </c>
       <c r="F11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>727.734375</v>
       </c>
       <c r="G11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>545.80078125</v>
       </c>
       <c r="H11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>409.3505859375</v>
       </c>
       <c r="I11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>307.012939453125</v>
       </c>
     </row>
@@ -853,27 +878,27 @@
         <v>431.25</v>
       </c>
       <c r="D12">
-        <f t="shared" ref="D12:I12" si="8">2*(D11)*D2/100</f>
+        <f t="shared" ref="D12:I12" si="9">2*(D11)*D2/100</f>
         <v>323.4375</v>
       </c>
       <c r="E12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>242.578125</v>
       </c>
       <c r="F12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>181.93359375</v>
       </c>
       <c r="G12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>136.4501953125</v>
       </c>
       <c r="H12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>102.337646484375</v>
       </c>
       <c r="I12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>76.75323486328125</v>
       </c>
     </row>
@@ -886,31 +911,31 @@
         <v>500.00000000000006</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:I13" si="9">C12*(1/POWER((1+$O$4/100),C1))</f>
+        <f t="shared" ref="C13:I13" si="10">C12*(1/POWER((1+$O$4/100),C1))</f>
         <v>326.08695652173918</v>
       </c>
       <c r="D13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>212.66540642722123</v>
       </c>
       <c r="E13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>138.69483027862256</v>
       </c>
       <c r="F13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>90.453150181710356</v>
       </c>
       <c r="G13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>58.991184901115453</v>
       </c>
       <c r="H13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>38.472511892031832</v>
       </c>
       <c r="I13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>25.090768625238148</v>
       </c>
     </row>
@@ -927,19 +952,19 @@
         <v>1725</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14:I14" si="10">C15</f>
+        <f t="shared" ref="D14:I14" si="11">C15</f>
         <v>1293.75</v>
       </c>
       <c r="E14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>970.3125</v>
       </c>
       <c r="F14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>727.734375</v>
       </c>
       <c r="G14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>545.80078125</v>
       </c>
       <c r="H14">
@@ -947,7 +972,7 @@
         <v>409.3505859375</v>
       </c>
       <c r="I14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>307.012939453125</v>
       </c>
     </row>
@@ -960,31 +985,31 @@
         <v>1725</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:I15" si="11">C14-C12</f>
+        <f t="shared" ref="C15:I15" si="12">C14-C12</f>
         <v>1293.75</v>
       </c>
       <c r="D15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>970.3125</v>
       </c>
       <c r="E15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>727.734375</v>
       </c>
       <c r="F15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>545.80078125</v>
       </c>
       <c r="G15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>409.3505859375</v>
       </c>
       <c r="H15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>307.012939453125</v>
       </c>
       <c r="I15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>230.25970458984375</v>
       </c>
     </row>
@@ -997,31 +1022,31 @@
         <v>2012.5</v>
       </c>
       <c r="C16">
-        <f t="shared" ref="C16:I16" si="12">(C15+C14)/2</f>
+        <f t="shared" ref="C16:I16" si="13">(C15+C14)/2</f>
         <v>1509.375</v>
       </c>
       <c r="D16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1132.03125</v>
       </c>
       <c r="E16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>849.0234375</v>
       </c>
       <c r="F16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>636.767578125</v>
       </c>
       <c r="G16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>477.57568359375</v>
       </c>
       <c r="H16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>358.1817626953125</v>
       </c>
       <c r="I16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>268.63632202148438</v>
       </c>
     </row>
@@ -1034,31 +1059,31 @@
         <v>44.274999999999999</v>
       </c>
       <c r="C17">
-        <f t="shared" ref="C17:I17" si="13">C16*0.022</f>
+        <f t="shared" ref="C17:I17" si="14">C16*0.022</f>
         <v>33.206249999999997</v>
       </c>
       <c r="D17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>24.904687499999998</v>
       </c>
       <c r="E17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>18.678515624999999</v>
       </c>
       <c r="F17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>14.008886718749999</v>
       </c>
       <c r="G17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>10.506665039062499</v>
       </c>
       <c r="H17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7.8799987792968746</v>
       </c>
       <c r="I17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.9099990844726555</v>
       </c>
     </row>
@@ -1071,49 +1096,77 @@
         <v>38.5</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:I18" si="14">C17*(1/POWER((1+$O$4/100),C1))</f>
+        <f t="shared" ref="C18:I18" si="15">C17*(1/POWER((1+$O$4/100),C1))</f>
         <v>25.108695652173914</v>
       </c>
       <c r="D18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16.375236294896034</v>
       </c>
       <c r="E18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.679501931453936</v>
       </c>
       <c r="F18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6.9648925639916968</v>
       </c>
       <c r="G18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4.5423212373858899</v>
       </c>
       <c r="H18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.9623834156864506</v>
       </c>
       <c r="I18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.9319891841433372</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
+      <c r="A20" s="6"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B21">
-        <f>8*((8+1)/2)</f>
-        <v>36</v>
+        <f>$O$2*($O$3-B1+1)/($O$3*($O$3+1)/2)</f>
+        <v>511.11111111111109</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:I21" si="16">$O$2*($O$3-C1+1)/($O$3*($O$3+1)/2)</f>
+        <v>447.22222222222223</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="16"/>
+        <v>383.33333333333331</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="16"/>
+        <v>319.44444444444446</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="16"/>
+        <v>255.55555555555554</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="16"/>
+        <v>191.66666666666666</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="16"/>
+        <v>127.77777777777777</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="16"/>
+        <v>63.888888888888886</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1121,36 +1174,36 @@
         <v>14</v>
       </c>
       <c r="B22">
-        <f>B21*(1/POWER((1+$O$4/100),B10))</f>
-        <v>36</v>
+        <f>B21*(1/POWER((1+$O$4/100),B1))</f>
+        <v>444.44444444444446</v>
       </c>
       <c r="C22">
-        <f t="shared" ref="C22" si="15">C21*(1/POWER((1+$O$4/100),C10))</f>
-        <v>0</v>
+        <f t="shared" ref="C22:I22" si="17">C21*(1/POWER((1+$O$4/100),C1))</f>
+        <v>338.16425120772954</v>
       </c>
       <c r="D22">
-        <f t="shared" ref="D22" si="16">D21*(1/POWER((1+$O$4/100),D10))</f>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>252.04788909892883</v>
       </c>
       <c r="E22">
-        <f t="shared" ref="E22" si="17">E21*(1/POWER((1+$O$4/100),E10))</f>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>182.64339789777458</v>
       </c>
       <c r="F22">
-        <f t="shared" ref="F22" si="18">F21*(1/POWER((1+$O$4/100),F10))</f>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>127.05627679845185</v>
       </c>
       <c r="G22">
-        <f t="shared" ref="G22" si="19">G21*(1/POWER((1+$O$4/100),G10))</f>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>82.862789216381643</v>
       </c>
       <c r="H22">
-        <f t="shared" ref="H22" si="20">H21*(1/POWER((1+$O$4/100),H10))</f>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>48.036399545728507</v>
       </c>
       <c r="I22">
-        <f t="shared" ref="I22" si="21">I21*(1/POWER((1+$O$4/100),I10))</f>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>20.88539110683848</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -1158,36 +1211,36 @@
         <v>7</v>
       </c>
       <c r="B23">
-        <f>O11</f>
-        <v>0</v>
+        <f>O2</f>
+        <v>2300</v>
       </c>
       <c r="C23">
         <f>B24</f>
-        <v>-36</v>
+        <v>1788.8888888888889</v>
       </c>
       <c r="D23">
-        <f t="shared" ref="D23:I23" si="22">C24</f>
-        <v>-36</v>
+        <f t="shared" ref="D23:I23" si="18">C24</f>
+        <v>1341.6666666666667</v>
       </c>
       <c r="E23">
-        <f t="shared" si="22"/>
-        <v>-36</v>
+        <f t="shared" si="18"/>
+        <v>958.33333333333348</v>
       </c>
       <c r="F23">
-        <f t="shared" si="22"/>
-        <v>-36</v>
+        <f t="shared" si="18"/>
+        <v>638.88888888888903</v>
       </c>
       <c r="G23">
-        <f t="shared" si="22"/>
-        <v>-36</v>
+        <f t="shared" si="18"/>
+        <v>383.33333333333348</v>
       </c>
       <c r="H23">
         <f>G24</f>
-        <v>-36</v>
+        <v>191.66666666666683</v>
       </c>
       <c r="I23">
-        <f t="shared" si="22"/>
-        <v>-36</v>
+        <f t="shared" si="18"/>
+        <v>63.888888888889056</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -1196,35 +1249,35 @@
       </c>
       <c r="B24">
         <f>B23-B21</f>
-        <v>-36</v>
+        <v>1788.8888888888889</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C24" si="23">C23-C21</f>
-        <v>-36</v>
+        <f t="shared" ref="C24" si="19">C23-C21</f>
+        <v>1341.6666666666667</v>
       </c>
       <c r="D24">
-        <f t="shared" ref="D24" si="24">D23-D21</f>
-        <v>-36</v>
+        <f t="shared" ref="D24" si="20">D23-D21</f>
+        <v>958.33333333333348</v>
       </c>
       <c r="E24">
-        <f t="shared" ref="E24" si="25">E23-E21</f>
-        <v>-36</v>
+        <f t="shared" ref="E24" si="21">E23-E21</f>
+        <v>638.88888888888903</v>
       </c>
       <c r="F24">
-        <f t="shared" ref="F24" si="26">F23-F21</f>
-        <v>-36</v>
+        <f t="shared" ref="F24" si="22">F23-F21</f>
+        <v>383.33333333333348</v>
       </c>
       <c r="G24">
-        <f t="shared" ref="G24" si="27">G23-G21</f>
-        <v>-36</v>
+        <f t="shared" ref="G24" si="23">G23-G21</f>
+        <v>191.66666666666683</v>
       </c>
       <c r="H24">
-        <f t="shared" ref="H24" si="28">H23-H21</f>
-        <v>-36</v>
+        <f t="shared" ref="H24" si="24">H23-H21</f>
+        <v>63.888888888889056</v>
       </c>
       <c r="I24">
-        <f t="shared" ref="I24" si="29">I23-I21</f>
-        <v>-36</v>
+        <f t="shared" ref="I24" si="25">I23-I21</f>
+        <v>1.7053025658242404E-13</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -1233,35 +1286,35 @@
       </c>
       <c r="B25">
         <f>(B24+B23)/2</f>
-        <v>-18</v>
+        <v>2044.4444444444443</v>
       </c>
       <c r="C25">
-        <f t="shared" ref="C25" si="30">(C24+C23)/2</f>
-        <v>-36</v>
+        <f t="shared" ref="C25" si="26">(C24+C23)/2</f>
+        <v>1565.2777777777778</v>
       </c>
       <c r="D25">
-        <f t="shared" ref="D25" si="31">(D24+D23)/2</f>
-        <v>-36</v>
+        <f t="shared" ref="D25" si="27">(D24+D23)/2</f>
+        <v>1150</v>
       </c>
       <c r="E25">
-        <f t="shared" ref="E25" si="32">(E24+E23)/2</f>
-        <v>-36</v>
+        <f t="shared" ref="E25" si="28">(E24+E23)/2</f>
+        <v>798.61111111111131</v>
       </c>
       <c r="F25">
-        <f t="shared" ref="F25" si="33">(F24+F23)/2</f>
-        <v>-36</v>
+        <f t="shared" ref="F25" si="29">(F24+F23)/2</f>
+        <v>511.11111111111126</v>
       </c>
       <c r="G25">
-        <f t="shared" ref="G25" si="34">(G24+G23)/2</f>
-        <v>-36</v>
+        <f t="shared" ref="G25" si="30">(G24+G23)/2</f>
+        <v>287.50000000000017</v>
       </c>
       <c r="H25">
-        <f t="shared" ref="H25" si="35">(H24+H23)/2</f>
-        <v>-36</v>
+        <f t="shared" ref="H25" si="31">(H24+H23)/2</f>
+        <v>127.77777777777794</v>
       </c>
       <c r="I25">
-        <f t="shared" ref="I25" si="36">(I24+I23)/2</f>
-        <v>-36</v>
+        <f t="shared" ref="I25" si="32">(I24+I23)/2</f>
+        <v>31.944444444444613</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -1270,35 +1323,35 @@
       </c>
       <c r="B26">
         <f>B25*0.022</f>
-        <v>-0.39599999999999996</v>
+        <v>44.977777777777774</v>
       </c>
       <c r="C26">
-        <f t="shared" ref="C26" si="37">C25*0.022</f>
-        <v>-0.79199999999999993</v>
+        <f t="shared" ref="C26" si="33">C25*0.022</f>
+        <v>34.43611111111111</v>
       </c>
       <c r="D26">
-        <f t="shared" ref="D26" si="38">D25*0.022</f>
-        <v>-0.79199999999999993</v>
+        <f t="shared" ref="D26" si="34">D25*0.022</f>
+        <v>25.299999999999997</v>
       </c>
       <c r="E26">
-        <f t="shared" ref="E26" si="39">E25*0.022</f>
-        <v>-0.79199999999999993</v>
+        <f t="shared" ref="E26" si="35">E25*0.022</f>
+        <v>17.569444444444446</v>
       </c>
       <c r="F26">
-        <f t="shared" ref="F26" si="40">F25*0.022</f>
-        <v>-0.79199999999999993</v>
+        <f t="shared" ref="F26" si="36">F25*0.022</f>
+        <v>11.244444444444447</v>
       </c>
       <c r="G26">
-        <f t="shared" ref="G26" si="41">G25*0.022</f>
-        <v>-0.79199999999999993</v>
+        <f t="shared" ref="G26" si="37">G25*0.022</f>
+        <v>6.3250000000000037</v>
       </c>
       <c r="H26">
-        <f t="shared" ref="H26" si="42">H25*0.022</f>
-        <v>-0.79199999999999993</v>
+        <f t="shared" ref="H26" si="38">H25*0.022</f>
+        <v>2.8111111111111144</v>
       </c>
       <c r="I26">
-        <f t="shared" ref="I26" si="43">I25*0.022</f>
-        <v>-0.79199999999999993</v>
+        <f t="shared" ref="I26" si="39">I25*0.022</f>
+        <v>0.7027777777777815</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -1306,100 +1359,391 @@
         <v>12</v>
       </c>
       <c r="B27">
-        <f>B26*(1/POWER((1+$O$4/100),B10))</f>
-        <v>-0.39599999999999996</v>
+        <f>B26*(1/POWER((1+$O$4/100),B1))</f>
+        <v>39.111111111111114</v>
       </c>
       <c r="C27">
-        <f t="shared" ref="C27" si="44">C26*(1/POWER((1+$O$4/100),C10))</f>
-        <v>-0.79199999999999993</v>
+        <f t="shared" ref="C27:I27" si="40">C26*(1/POWER((1+$O$4/100),C1))</f>
+        <v>26.038647342995173</v>
       </c>
       <c r="D27">
-        <f t="shared" ref="D27" si="45">D26*(1/POWER((1+$O$4/100),D10))</f>
-        <v>-0.79199999999999993</v>
+        <f t="shared" si="40"/>
+        <v>16.635160680529303</v>
       </c>
       <c r="E27">
-        <f t="shared" ref="E27" si="46">E26*(1/POWER((1+$O$4/100),E10))</f>
-        <v>-0.79199999999999993</v>
+        <f t="shared" si="40"/>
+        <v>10.045386884377603</v>
       </c>
       <c r="F27">
-        <f t="shared" ref="F27" si="47">F26*(1/POWER((1+$O$4/100),F10))</f>
-        <v>-0.79199999999999993</v>
+        <f t="shared" si="40"/>
+        <v>5.5904761791318833</v>
       </c>
       <c r="G27">
-        <f t="shared" ref="G27" si="48">G26*(1/POWER((1+$O$4/100),G10))</f>
-        <v>-0.79199999999999993</v>
+        <f t="shared" si="40"/>
+        <v>2.7344720441405963</v>
       </c>
       <c r="H27">
-        <f t="shared" ref="H27" si="49">H26*(1/POWER((1+$O$4/100),H10))</f>
-        <v>-0.79199999999999993</v>
+        <f t="shared" si="40"/>
+        <v>1.0568007900060286</v>
       </c>
       <c r="I27">
-        <f t="shared" ref="I27" si="50">I26*(1/POWER((1+$O$4/100),I10))</f>
-        <v>-0.79199999999999993</v>
+        <f t="shared" si="40"/>
+        <v>0.22973930217522451</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
+      <c r="A29" s="7"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="B30">
+        <f>B12</f>
+        <v>575</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ref="C30:I30" si="41">C12</f>
+        <v>431.25</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="41"/>
+        <v>323.4375</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="41"/>
+        <v>242.578125</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="41"/>
+        <v>181.93359375</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="41"/>
+        <v>136.4501953125</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="41"/>
+        <v>102.337646484375</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="41"/>
+        <v>76.75323486328125</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="B31">
+        <f>B3</f>
+        <v>287.5</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ref="C31:I31" si="42">C3</f>
+        <v>287.5</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="42"/>
+        <v>287.5</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="42"/>
+        <v>287.5</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="42"/>
+        <v>287.5</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="42"/>
+        <v>287.5</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="42"/>
+        <v>287.5</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="42"/>
+        <v>287.5</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B32">
-        <f>(B30-B31)*0.2</f>
-        <v>0</v>
+        <f t="shared" ref="B32:I32" si="43">(B30-B31)*0.2</f>
+        <v>57.5</v>
       </c>
       <c r="C32">
-        <f t="shared" ref="C32:I32" si="51">(C30-C31)*0.2</f>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>28.75</v>
       </c>
       <c r="D32">
-        <f t="shared" si="51"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>7.1875</v>
       </c>
       <c r="E32">
-        <f t="shared" si="51"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>-8.984375</v>
       </c>
       <c r="F32">
-        <f t="shared" si="51"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>-21.11328125</v>
       </c>
       <c r="G32">
-        <f t="shared" si="51"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>-30.2099609375</v>
       </c>
       <c r="H32">
-        <f t="shared" si="51"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>-37.032470703125</v>
       </c>
       <c r="I32">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
+        <f t="shared" si="43"/>
+        <v>-42.14935302734375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <f>B32/(1+$O$4/100)^B1</f>
+        <v>50.000000000000007</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ref="C33:I33" si="44">C32/(1+$O$4/100)^C1</f>
+        <v>21.739130434782613</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="44"/>
+        <v>4.7258979206049165</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="44"/>
+        <v>-5.1368455658749088</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="44"/>
+        <v>-10.497032243309597</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="44"/>
+        <v>-13.060599784691405</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="44"/>
+        <v>-13.921877417171462</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="44"/>
+        <v>-13.778698271107004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35">
+        <v>6</v>
+      </c>
+      <c r="H35">
+        <v>7</v>
+      </c>
+      <c r="I35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36">
+        <f>$O7</f>
+        <v>37800</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37">
+        <f>B13-B4</f>
+        <v>250.00000000000003</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37:I37" si="45">C13-C4</f>
+        <v>108.69565217391306</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="45"/>
+        <v>23.629489603024581</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="45"/>
+        <v>-25.684227829374549</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="45"/>
+        <v>-52.485161216547993</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="45"/>
+        <v>-65.302998923457039</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="45"/>
+        <v>-69.609387085857321</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="45"/>
+        <v>-68.893491355535019</v>
+      </c>
+      <c r="J37">
+        <f>SUM(B37:I37)</f>
+        <v>100.34987536616575</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <f>B8-B26</f>
+        <v>2.4597222222222257</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38:I38" si="46">C8-C26</f>
+        <v>6.6763888888888872</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="46"/>
+        <v>9.4875000000000043</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="46"/>
+        <v>10.893055555555552</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="46"/>
+        <v>10.893055555555552</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="46"/>
+        <v>9.4874999999999936</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="46"/>
+        <v>6.6763888888888845</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="46"/>
+        <v>2.4597222222222181</v>
+      </c>
+      <c r="J38">
+        <f>SUM(B38:I38)</f>
+        <v>59.033333333333317</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39">
+        <f>B32</f>
+        <v>57.5</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:I39" si="47">C32</f>
+        <v>28.75</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="47"/>
+        <v>7.1875</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="47"/>
+        <v>-8.984375</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="47"/>
+        <v>-21.11328125</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="47"/>
+        <v>-30.2099609375</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="47"/>
+        <v>-37.032470703125</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="47"/>
+        <v>-42.14935302734375</v>
+      </c>
+      <c r="J39">
+        <f>SUM(J37:J38)</f>
+        <v>159.38320869949905</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40">
+        <f>SUM(B37:B39)</f>
+        <v>309.95972222222224</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ref="C40:I40" si="48">SUM(C37:C39)</f>
+        <v>144.12204106280194</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="48"/>
+        <v>40.304489603024585</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="48"/>
+        <v>-23.775547273818997</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="48"/>
+        <v>-62.705386910992445</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="48"/>
+        <v>-86.025459860957042</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="48"/>
+        <v>-99.965468900093441</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="48"/>
+        <v>-108.58312216065656</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
